--- a/data/trans_bre/P36B13_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P36B13_R-Edad-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.42041587562058</v>
+        <v>-12.09822132613176</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.638006523825855</v>
+        <v>-9.271227215448933</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.4200779969212261</v>
+        <v>-0.4092393748948821</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.5216496316750137</v>
+        <v>-0.553576712941937</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.3321570053439018</v>
+        <v>-0.5345077800871517</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.46706351687004</v>
+        <v>5.302037251594382</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-0.003919378450549496</v>
+        <v>-0.02425350363399905</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.5211536424525814</v>
+        <v>0.6233115103039023</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-14.72510780818355</v>
+        <v>-14.61971995183215</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-16.0372711410712</v>
+        <v>-15.8509624835856</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5962892110035436</v>
+        <v>-0.5872466745589523</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.8652659494163436</v>
+        <v>-0.8712804936935478</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-6.155346933855004</v>
+        <v>-6.030744842674948</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-6.40374876604474</v>
+        <v>-6.282184770560693</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2981331346822492</v>
+        <v>-0.2966875383680867</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.5641595214300573</v>
+        <v>-0.5614944889153121</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.015922080926233</v>
+        <v>-7.154308788260143</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.025966066780903</v>
+        <v>-5.049556461438485</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.5048335788751624</v>
+        <v>-0.5171276041356649</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.5394127468564559</v>
+        <v>-0.5295257490715357</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.5990581961117784</v>
+        <v>-0.787557688172183</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.453590408237296</v>
+        <v>0.6335153408995607</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>-0.05004456173647869</v>
+        <v>-0.06759152848352627</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.09936568845134874</v>
+        <v>0.1320263811106433</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-2.678668706885999</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-3.280502822087203</v>
+        <v>-3.280502822087205</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.3425920111917204</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.467542226362706</v>
+        <v>-0.4675422263627061</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.508311959427703</v>
+        <v>-5.384545726241368</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.921168458755336</v>
+        <v>-5.915509483396413</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5869727556056935</v>
+        <v>-0.574988938163971</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6545772096396413</v>
+        <v>-0.669083956484093</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2363830633863959</v>
+        <v>0.1473219866418233</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.149827505075609</v>
+        <v>-1.060939906596595</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.05243940480011452</v>
+        <v>0.03448393215004558</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1823655541365942</v>
+        <v>-0.1714829989495016</v>
       </c>
     </row>
     <row r="16">
@@ -848,7 +848,7 @@
         <v>-0.7276176951161207</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-2.927688936135253</v>
+        <v>-2.927688936135254</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>-0.1387266128473992</v>
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.578433946517282</v>
+        <v>-3.509323135282356</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.937559563795857</v>
+        <v>-4.997971582564093</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.5310434345441044</v>
+        <v>-0.5515251593336349</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.8183713842790672</v>
+        <v>-0.8255033572443304</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.618506889848383</v>
+        <v>2.197972647209923</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.235727272948707</v>
+        <v>-1.229056259766919</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.7284609659273354</v>
+        <v>0.5753616329174036</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.3229884840303852</v>
+        <v>-0.3514445583853043</v>
       </c>
     </row>
     <row r="19">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.364906526104523</v>
+        <v>-3.899263552434832</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.687687558284489</v>
+        <v>-3.820806565695521</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6341365756746047</v>
+        <v>-0.7010231237872312</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8065791457757109</v>
+        <v>-0.8156708843967818</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.052417516432192</v>
+        <v>1.608833229566225</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-0.2356813719368112</v>
+        <v>-0.157748930836495</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8510010189227005</v>
+        <v>0.6897809718775711</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.07230459051052356</v>
+        <v>0.01267425251678535</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>-1.291515120682223</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3666371849883505</v>
+        <v>0.3666371849883499</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>-0.3620101609325054</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.2232316992015911</v>
+        <v>0.2232316992015907</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.111950062215882</v>
+        <v>-4.011554183382407</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.319692183492314</v>
+        <v>-1.307685929183414</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.8142329821372116</v>
+        <v>-0.7521729683180083</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.5501561024381184</v>
+        <v>-0.5369655453613326</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.236009137956784</v>
+        <v>1.74063893506483</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.957286425425758</v>
+        <v>1.849664180089942</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.7041889337173255</v>
+        <v>1.395340090627068</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.444945579920092</v>
+        <v>2.341984266746246</v>
       </c>
     </row>
     <row r="25">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-5.925778275153623</v>
+        <v>-6.123922146074657</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-5.057584583346848</v>
+        <v>-4.892335364312419</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4471850314601059</v>
+        <v>-0.4601650290278623</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.591551284660419</v>
+        <v>-0.5851715341054223</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-3.218125325599937</v>
+        <v>-3.185858211693604</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-2.445462397974991</v>
+        <v>-2.429376578986798</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2729712349541538</v>
+        <v>-0.2736605227851167</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.3520271266071458</v>
+        <v>-0.3532468588964363</v>
       </c>
     </row>
     <row r="28">
